--- a/optaplanner/flight.xlsx
+++ b/optaplanner/flight.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\ascp\optaplanner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F67E5C9-4141-44A6-A5E1-105A33F658A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE4E6A7F-5421-4544-AF9C-9DB765D935D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12420" yWindow="615" windowWidth="15255" windowHeight="14865" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="f" sheetId="1" r:id="rId1"/>
@@ -1327,8 +1327,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="A102" sqref="A102"/>
+    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="I106" sqref="I106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
